--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25950" windowHeight="11190"/>
+    <workbookView windowWidth="22710" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>CaseId</t>
   </si>
@@ -64,7 +64,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>{"version":"2.0","data":{"UserName":"admin1","Password":"123456"},"token":"64B5CFFD902EE7C5AD7FACEE6A5133B5","orgcode":"865100000001","Operation":{"UserID":"","UserName":"","UserType":"","OpType":"</t>
+      <t>{"version":"2.0","data":{"UserName":"admin1","Password":"123456"},"token":"64B5CFFD902EE7C5AD7FACEE6A5133B5","orgcode":"8651000000016666","Operation":{"UserID":"","UserName":"","UserType":"","OpType":"登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","OpRemark":"</t>
     </r>
     <r>
       <rPr>
@@ -82,6 +91,41 @@
         <rFont val="Tahoma"/>
         <charset val="134"/>
       </rPr>
+      <t>"}}</t>
+    </r>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>账号或密码错误，请重新输入！</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>test_002</t>
+  </si>
+  <si>
+    <t>不输入账号登录</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"version":"2.0","data":{"UserName":"","Password":""},"token":"64B5CFFD902EE7C5AD7FACEE6A5133B5","orgcode":"865100000001","Operation":{"UserID":"","UserName":"","UserType":"","OpType":"登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>","OpRemark":"</t>
     </r>
     <r>
@@ -104,19 +148,13 @@
     </r>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>账号或密码错误，请重新输入！</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>test_002</t>
-  </si>
-  <si>
-    <t>不输入账号登录</t>
+    <t>账号、密码不能为空！</t>
+  </si>
+  <si>
+    <t>test_003</t>
+  </si>
+  <si>
+    <t>使用正确的账号及密码登录</t>
   </si>
   <si>
     <r>
@@ -126,7 +164,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>{"version":"2.0","data":{"UserName":"","Password":""},"token":"64B5CFFD902EE7C5AD7FACEE6A5133B5","orgcode":"865100000001","Operation":{"UserID":"","UserName":"","UserType":"","OpType":"登录</t>
+      <t>{"version":"2.0","data":{"UserName":"admin","Password":"123456"},"token":"64B5CFFD902EE7C5AD7FACEE6A5133B5","orgcode":"865100000001","Operation":{"UserID":"","UserName":"","UserType":"","OpType":"登录</t>
     </r>
     <r>
       <rPr>
@@ -157,13 +195,19 @@
     </r>
   </si>
   <si>
-    <t>账号、密码不能为空！</t>
-  </si>
-  <si>
-    <t>test_003</t>
-  </si>
-  <si>
-    <t>使用正确的账号及密码登录</t>
+    <t>True</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>test_004</t>
+  </si>
+  <si>
+    <t>获取应用列表</t>
+  </si>
+  <si>
+    <t>/service/app/GetAppList</t>
   </si>
   <si>
     <r>
@@ -173,7 +217,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>{"version":"2.0","data":{"UserName":"admin","Password":"123456"},"token":"64B5CFFD902EE7C5AD7FACEE6A5133B5","orgcode":"865100000001","Operation":{"UserID":"","UserName":"","UserType":"","OpType":"登录</t>
+      <t>{"version":"2.0","data":{},"token":"{token}","orgcode":"865100000001","Operation":{"UserID":"admin","UserName":"admin","UserType":"0","OpType":"查询</t>
     </r>
     <r>
       <rPr>
@@ -191,7 +235,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>登录</t>
+      <t>查询</t>
     </r>
     <r>
       <rPr>
@@ -204,23 +248,59 @@
     </r>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>test_004</t>
-  </si>
-  <si>
-    <t>获取应用列表</t>
-  </si>
-  <si>
-    <t>/service/app/GetAppList</t>
-  </si>
-  <si>
-    <r>
-      <t>{"version":"2.0","data":{},"token":"{token}","orgcode":"865100000001","Operation":{"UserID":"admin","UserName":"admin","UserType":"0","OpType":"查询</t>
+    <t>test_005</t>
+  </si>
+  <si>
+    <t>新增教师：只填写必填信息</t>
+  </si>
+  <si>
+    <t>/service/stf/RefreshStaffInfo</t>
+  </si>
+  <si>
+    <t>{"version":"2.0","data":{"Uid":"","ICard":"999001","Name":"d1","Sex":"1","Birthday":null,"PhoneNum":"","Types":[{"Type":1}],"IDCard":"","IPCard":"","Status":"A","Enable":1,"SaffType":1,"DeadLine":"","RefreshType":1,"ImgName":"","ImgBase64":""},"token":"{token}","orgcode":"865100000001","Operation":{"UserID":"admin","UserName":"admin","UserType":"0","OpType":"添加","OpRemark":"添加"}}</t>
+  </si>
+  <si>
+    <t>test_006</t>
+  </si>
+  <si>
+    <t>新增教师：填写所有信息</t>
+  </si>
+  <si>
+    <t>{"version":"2.0","data":{"Uid":"","ICard":"999002","Name":"d2","Sex":"1","Birthday":"631152000000","PhoneNum":"13551248754","Types":[{"Type":1}],"IDCard":"999002","OrganID":"BD359C8E758444E2B246E5681E21986E","InstitutionID":"GZ030503_GZ_1","IPCard":"999002","Status":"A","Enable":1,"SaffType":1,"DeadLine":"","RefreshType":1,"ImgName":"","ImgBase64":""},"token":"{token}","orgcode":"865100000001","Operation":{"UserID":"admin","UserName":"admin","UserType":"0","OpType":"添加","OpRemark":"添加"}}</t>
+  </si>
+  <si>
+    <t>test_007</t>
+  </si>
+  <si>
+    <t>查询教师：查询新增的教师信息</t>
+  </si>
+  <si>
+    <t>/service/stf/GetStaffInfo</t>
+  </si>
+  <si>
+    <t>{"version":"2.0","data":{"Sex":"","IFPhoto":0,"Selections":"999","Type":1,"BirthdayStart":null,"BirthdayEnd":null,"Pagesize":20,"PageNum":1},"token":"{token}","orgcode":"865100000001","Operation":{"UserID":"admin","UserName":"admin","UserType":"0","OpType":"查询","OpRemark":"查询"}}</t>
+  </si>
+  <si>
+    <t>test_008</t>
+  </si>
+  <si>
+    <t>编辑教师信息：编辑新增的教师信息</t>
+  </si>
+  <si>
+    <t>{"version":"2.0","data":{"Uid":"","ICard":"999001","Name":"dd1","Sex":"1","Birthday":null,"PhoneNum":"","Types":[{"Type":1}],"IDCard":"","OrganID":"","InstitutionID":"","IPCard":"","Status":"A","Enable":1,"SaffType":1,"DeadLine":"","RefreshType":2,"ImgName":"","ImgBase64":""},"token":"{token}","orgcode":"865100000001","Operation":{"UserID":"admin","UserName":"admin","UserType":"0","OpType":"编辑","OpRemark":"编辑"}}</t>
+  </si>
+  <si>
+    <t>test_009</t>
+  </si>
+  <si>
+    <t>删除教师信息：删除新增的教师信息</t>
+  </si>
+  <si>
+    <t>/service/stf/DelStaffsInfo</t>
+  </si>
+  <si>
+    <r>
+      <t>{"version":"2.0","data":{"Statu_Params":[]},"token":"{token}","orgcode":"865100000001","Operation":{"UserID":"admin","UserName":"admin","UserType":"0","OpType":"删除</t>
     </r>
     <r>
       <rPr>
@@ -238,7 +318,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>查询</t>
+      <t>删除</t>
     </r>
     <r>
       <rPr>
@@ -275,6 +355,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -283,60 +407,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,29 +429,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -386,6 +444,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,31 +468,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,187 +514,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,21 +713,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,16 +735,33 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -700,177 +782,175 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1240,21 +1320,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="22.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1287,7 +1368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="68.25" spans="1:9">
+    <row r="2" ht="54.75" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1314,7 +1395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="68.25" spans="1:9">
+    <row r="3" ht="55.5" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1341,7 +1422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="68.25" spans="1:9">
+    <row r="4" ht="54.75" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1368,7 +1449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="54.75" spans="1:9">
+    <row r="5" ht="41.25" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -1391,6 +1472,124 @@
         <v>25</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="108" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="108" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="94.5" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="41.25" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1322,8 +1322,8 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
